--- a/config/excel/unit.xlsx
+++ b/config/excel/unit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -82,7 +82,10 @@
     <t>特殊技能id</t>
   </si>
   <si>
-    <t>导出字段类型</t>
+    <t>客户端导出字段类型</t>
+  </si>
+  <si>
+    <t>服务器导出字段类型</t>
   </si>
   <si>
     <t>int</t>
@@ -91,19 +94,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>c:string</t>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>[]int</t>
   </si>
   <si>
     <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>yokai</t>
@@ -585,9 +582,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -667,7 +664,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -695,10 +692,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -954,9 +951,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1244,7 +1241,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1272,10 +1269,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1526,14 +1523,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1719" style="1" customWidth="1"/>
@@ -1653,132 +1650,112 @@
       <c r="B5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s" s="9">
-        <v>24</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="E7" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" t="s" s="8">
+      <c r="J7" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="J6" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
-        <v>2</v>
-      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s" s="21">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s" s="16">
         <v>36</v>
       </c>
-      <c r="F8" s="19">
+      <c r="I8" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="K8" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s" s="22">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="22">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s" s="23">
-        <v>39</v>
-      </c>
-      <c r="K8" s="24">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1786,13 +1763,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s" s="20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -1801,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s" s="22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s" s="23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K9" s="24">
         <v>1</v>
@@ -1819,34 +1796,68 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="22">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="25">
         <v>10000</v>
       </c>
-      <c r="D10" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s" s="21">
+      <c r="D11" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="27">
         <v>42</v>
       </c>
-      <c r="F10" s="25">
+      <c r="J11" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s" s="27">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="L11" s="19">
         <v>2</v>
       </c>
     </row>

--- a/config/excel/unit.xlsx
+++ b/config/excel/unit.xlsx
@@ -88,7 +88,7 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int</t>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
@@ -97,7 +97,7 @@
     <t>[]string</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>[]int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>

--- a/config/excel/unit.xlsx
+++ b/config/excel/unit.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -100,40 +100,34 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>导出字段默认值</t>
+    <t>chan1</t>
+  </si>
+  <si>
+    <t>我是主角之一</t>
+  </si>
+  <si>
+    <t>speed,atk,def,hp,maxhp</t>
+  </si>
+  <si>
+    <t>10000,10,20,200,200</t>
+  </si>
+  <si>
+    <t>unitychan</t>
+  </si>
+  <si>
+    <t>chan2</t>
+  </si>
+  <si>
+    <t>unitychan_red</t>
+  </si>
+  <si>
+    <t>chan3</t>
+  </si>
+  <si>
+    <t>unitychan_green</t>
   </si>
   <si>
     <t>yokai</t>
-  </si>
-  <si>
-    <t>怪物</t>
-  </si>
-  <si>
-    <t>10000,10,20,200,200</t>
-  </si>
-  <si>
-    <t>unitychan</t>
-  </si>
-  <si>
-    <t>chan1</t>
-  </si>
-  <si>
-    <t>我是主角之一</t>
-  </si>
-  <si>
-    <t>speed,atk,def,hp,maxhp</t>
-  </si>
-  <si>
-    <t>chan2</t>
-  </si>
-  <si>
-    <t>unitychan_red</t>
-  </si>
-  <si>
-    <t>chan3</t>
-  </si>
-  <si>
-    <t>unitychan_green</t>
   </si>
   <si>
     <t>我是怪物</t>
@@ -326,7 +320,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -355,15 +349,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1523,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1697,17 +1682,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" t="s" s="8">
+      <c r="E7" t="s" s="12">
         <v>30</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>31</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -1715,149 +1700,121 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" t="s" s="8">
+      <c r="H7" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="8">
+      <c r="J7" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="13">
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="15">
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="F8" s="13">
+      <c r="K8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="L8" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="19">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="20">
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s" s="20">
         <v>37</v>
       </c>
-      <c r="E9" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="K9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s" s="22">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s" s="22">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s" s="23">
-        <v>38</v>
-      </c>
-      <c r="K9" s="24">
-        <v>1</v>
-      </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="19">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="20">
+      <c r="C10" s="22">
+        <v>10000</v>
+      </c>
+      <c r="D10" t="s" s="23">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="E10" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="22">
         <v>0</v>
       </c>
-      <c r="H10" t="s" s="22">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s" s="22">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s" s="23">
+      <c r="H10" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s" s="24">
         <v>40</v>
       </c>
-      <c r="K10" s="24">
+      <c r="J10" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="K10" s="16">
         <v>1</v>
       </c>
-      <c r="L10" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D11" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s" s="27">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s" s="27">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="L10" s="16">
         <v>2</v>
       </c>
     </row>

--- a/config/excel/unit.xlsx
+++ b/config/excel/unit.xlsx
@@ -1,91 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId4"/>
+    <sheet name="Unit" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t>怪物表</t>
+  </si>
+  <si>
+    <t>怪物id</t>
   </si>
   <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>NextLevel</t>
-  </si>
-  <si>
-    <t>AttrName</t>
-  </si>
-  <si>
-    <t>AttrValue</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>NormalSpellId</t>
-  </si>
-  <si>
-    <t>SpecialSpellId</t>
+    <t>attId</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
+    <t>怪物名字</t>
   </si>
   <si>
-    <t>名字</t>
+    <t>属性id</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>字段控制</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>C</t>
   </si>
   <si>
-    <t>下个等级</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>属性值</t>
-  </si>
-  <si>
-    <t>资源路径</t>
-  </si>
-  <si>
-    <t>普攻技能id</t>
-  </si>
-  <si>
-    <t>特殊技能id</t>
-  </si>
-  <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
@@ -94,84 +61,192 @@
     <t>string</t>
   </si>
   <si>
-    <t>[]string</t>
+    <t>demo版本怪物1</t>
   </si>
   <si>
-    <t>[]int32</t>
+    <t>demo版本怪物2</t>
   </si>
   <si>
-    <t>chan1</t>
-  </si>
-  <si>
-    <t>我是主角之一</t>
-  </si>
-  <si>
-    <t>speed,atk,def,hp,maxhp</t>
-  </si>
-  <si>
-    <t>10000,10,20,200,200</t>
-  </si>
-  <si>
-    <t>unitychan</t>
-  </si>
-  <si>
-    <t>chan2</t>
-  </si>
-  <si>
-    <t>unitychan_red</t>
-  </si>
-  <si>
-    <t>chan3</t>
-  </si>
-  <si>
-    <t>unitychan_green</t>
-  </si>
-  <si>
-    <t>yokai</t>
-  </si>
-  <si>
-    <t>我是怪物</t>
-  </si>
-  <si>
-    <t>10000,10,20,500,500</t>
+    <t>demo版本怪物3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,13 +256,199 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,87 +462,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,143 +479,388 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 主题">
+    <a:clrScheme name="Office 主题​​">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -463,7 +898,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 主题">
+    <a:fontScheme name="Office 主题​​">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -475,7 +910,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 主题">
+    <a:fmtScheme name="Office 主题​​">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +984,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -558,7 +993,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -567,7 +1002,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -641,13 +1076,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -667,8 +1101,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,7 +1113,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -697,8 +1130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,8 +1155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,8 +1180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,8 +1205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,8 +1230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,8 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,8 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,8 +1305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,8 +1330,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,9 +1343,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -936,13 +1366,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -962,8 +1391,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,8 +1416,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,8 +1441,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,8 +1466,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,8 +1491,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,8 +1516,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,8 +1541,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,8 +1566,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,8 +1591,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,8 +1616,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,9 +1629,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1223,8 +1648,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1244,8 +1667,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,7 +1679,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1274,8 +1696,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,8 +1721,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,8 +1746,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,8 +1771,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,8 +1796,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,8 +1821,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,8 +1846,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,8 +1871,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,8 +1896,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,9 +1909,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1507,320 +1926,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3516" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="16377" width="6" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+    <row r="2" ht="47" customHeight="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="14" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="7">
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:5">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:5">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="14" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s" s="8">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="16">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="18">
-        <v>30</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="16">
+      <c r="E9" s="1">
         <v>3</v>
-      </c>
-      <c r="D9" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s" s="18">
-        <v>30</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="22">
-        <v>10000</v>
-      </c>
-      <c r="D10" t="s" s="23">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s" s="18">
-        <v>39</v>
-      </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s" s="24">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s" s="17">
-        <v>38</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="16">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/unit.xlsx
+++ b/config/excel/unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -66,19 +66,16 @@
   <si>
     <t>demo版本怪物2</t>
   </si>
-  <si>
-    <t>demo版本怪物3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -96,14 +93,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +132,82 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,24 +221,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,75 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -231,20 +242,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -267,25 +264,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,31 +390,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,121 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,8 +476,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +512,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,36 +562,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -576,148 +573,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,54 +728,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1926,20 +1923,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="16377" width="6" style="1" customWidth="1"/>
     <col min="16378" max="16384" width="6" style="1"/>
@@ -2031,30 +2028,22 @@
         <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:5">
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:5">
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
+    <row r="9" customHeight="1" spans="4:4">
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
